--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$68</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,9 +450,6 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for this issue</t>
-  </si>
-  <si>
     <t>Business identifier for this issue.</t>
   </si>
   <si>
@@ -518,7 +512,7 @@
     <t>ClinicalUseDefinition.status</t>
   </si>
   <si>
-    <t>Whether this is a current issue or one that has been retired etc</t>
+    <t>Whether this is a current issue or one that has been retired</t>
   </si>
   <si>
     <t>Whether this is a current issue or one that has been retired etc.</t>
@@ -860,9 +854,6 @@
   </si>
   <si>
     <t>ClinicalUseDefinition.interaction.type</t>
-  </si>
-  <si>
-    <t>The type of the interaction e.g. drug-drug interaction, drug-food interaction, drug-lab test interaction</t>
   </si>
   <si>
     <t>The type of the interaction e.g. drug-drug interaction, drug-food interaction, drug-lab test interaction.</t>
@@ -1155,21 +1146,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1501,7 +1477,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -1607,7 +1583,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1715,7 +1691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -1821,7 +1797,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -1929,7 +1905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2037,7 +2013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2145,7 +2121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>117</v>
       </c>
@@ -2253,7 +2229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>125</v>
       </c>
@@ -2361,7 +2337,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -2471,7 +2447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>138</v>
       </c>
@@ -2502,7 +2478,7 @@
         <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2568,18 +2544,18 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2605,10 +2581,10 @@
         <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2620,29 +2596,29 @@
         <v>71</v>
       </c>
       <c r="R12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W12" t="s" s="2">
+      <c r="X12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2659,7 +2635,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>81</v>
@@ -2674,18 +2650,18 @@
         <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" hidden="true">
-      <c r="A13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2708,13 +2684,13 @@
         <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2765,7 +2741,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
@@ -2780,7 +2756,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>71</v>
@@ -2789,9 +2765,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2814,13 +2790,13 @@
         <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2871,7 +2847,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -2886,18 +2862,18 @@
         <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2920,13 +2896,13 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2977,7 +2953,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -2992,7 +2968,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>71</v>
@@ -3001,9 +2977,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3014,7 +2990,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -3026,13 +3002,13 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3083,7 +3059,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3098,18 +3074,18 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3135,10 +3111,10 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3189,7 +3165,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3210,12 +3186,12 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3244,7 +3220,7 @@
         <v>128</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>130</v>
@@ -3297,7 +3273,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3318,16 +3294,16 @@
         <v>71</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3349,10 +3325,10 @@
         <v>127</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>130</v>
@@ -3407,7 +3383,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3431,9 +3407,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3456,13 +3432,13 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3513,7 +3489,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3528,18 +3504,18 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3562,13 +3538,13 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3619,7 +3595,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3634,18 +3610,18 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3668,13 +3644,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3725,7 +3701,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3740,18 +3716,18 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3774,13 +3750,13 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3831,7 +3807,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -3846,18 +3822,18 @@
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3880,13 +3856,13 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3937,7 +3913,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -3952,18 +3928,18 @@
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3989,10 +3965,10 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4043,7 +4019,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4064,12 +4040,12 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4098,7 +4074,7 @@
         <v>128</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>130</v>
@@ -4151,7 +4127,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4172,16 +4148,16 @@
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4203,10 +4179,10 @@
         <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>130</v>
@@ -4261,7 +4237,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4285,9 +4261,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4310,13 +4286,13 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4346,11 +4322,11 @@
         <v>105</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4367,7 +4343,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>81</v>
@@ -4382,18 +4358,18 @@
         <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4416,13 +4392,13 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4473,7 +4449,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>81</v>
@@ -4488,18 +4464,18 @@
         <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4510,7 +4486,7 @@
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4522,13 +4498,13 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4579,7 +4555,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4594,18 +4570,18 @@
         <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4631,10 +4607,10 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4685,7 +4661,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4706,12 +4682,12 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4740,7 +4716,7 @@
         <v>128</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>130</v>
@@ -4793,7 +4769,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4814,16 +4790,16 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4845,10 +4821,10 @@
         <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>130</v>
@@ -4903,7 +4879,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -4927,9 +4903,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4952,13 +4928,13 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5009,7 +4985,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5024,18 +5000,18 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5058,13 +5034,13 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5115,7 +5091,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5130,18 +5106,18 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5164,13 +5140,13 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5221,7 +5197,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5236,18 +5212,18 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5270,13 +5246,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5327,7 +5303,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5342,18 +5318,18 @@
         <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5376,13 +5352,13 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5433,7 +5409,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5448,18 +5424,18 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5482,13 +5458,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5539,7 +5515,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5554,18 +5530,18 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5591,10 +5567,10 @@
         <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5645,7 +5621,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5660,18 +5636,18 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5694,13 +5670,13 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5751,7 +5727,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5766,18 +5742,18 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5803,10 +5779,10 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5857,7 +5833,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -5878,12 +5854,12 @@
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5912,7 +5888,7 @@
         <v>128</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>130</v>
@@ -5965,7 +5941,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -5986,16 +5962,16 @@
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6017,10 +5993,10 @@
         <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>130</v>
@@ -6075,7 +6051,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6099,9 +6075,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6124,13 +6100,13 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6181,7 +6157,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6196,18 +6172,18 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6233,10 +6209,10 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6287,7 +6263,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6308,12 +6284,12 @@
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6342,7 +6318,7 @@
         <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>130</v>
@@ -6395,7 +6371,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6416,16 +6392,16 @@
         <v>71</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6447,10 +6423,10 @@
         <v>127</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>130</v>
@@ -6505,7 +6481,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6529,9 +6505,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6554,13 +6530,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6599,17 +6575,17 @@
         <v>71</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>81</v>
@@ -6624,7 +6600,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
@@ -6635,10 +6611,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>71</v>
@@ -6651,7 +6627,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>71</v>
@@ -6660,13 +6636,13 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6717,7 +6693,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>81</v>
@@ -6732,7 +6708,7 @@
         <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
@@ -6741,9 +6717,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6766,13 +6742,13 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6823,7 +6799,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6838,7 +6814,7 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>71</v>
@@ -6847,9 +6823,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6872,13 +6848,13 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6929,7 +6905,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -6944,7 +6920,7 @@
         <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>71</v>
@@ -6953,9 +6929,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6978,13 +6954,13 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7035,7 +7011,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7050,7 +7026,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
@@ -7059,9 +7035,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7084,13 +7060,13 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7141,7 +7117,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7156,7 +7132,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7165,9 +7141,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7190,13 +7166,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7247,7 +7223,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7262,7 +7238,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>71</v>
@@ -7271,9 +7247,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7284,7 +7260,7 @@
         <v>72</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>71</v>
@@ -7296,13 +7272,13 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7353,7 +7329,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7368,7 +7344,7 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>71</v>
@@ -7377,9 +7353,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7405,10 +7381,10 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7459,7 +7435,7 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
@@ -7480,12 +7456,12 @@
         <v>71</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7514,7 +7490,7 @@
         <v>128</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>130</v>
@@ -7567,7 +7543,7 @@
         <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -7588,16 +7564,16 @@
         <v>71</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7619,10 +7595,10 @@
         <v>127</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>130</v>
@@ -7677,7 +7653,7 @@
         <v>71</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>72</v>
@@ -7701,9 +7677,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7726,13 +7702,13 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7783,7 +7759,7 @@
         <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
@@ -7798,7 +7774,7 @@
         <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>71</v>
@@ -7807,9 +7783,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7832,13 +7808,13 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7889,7 +7865,7 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
@@ -7904,7 +7880,7 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>71</v>
@@ -7913,9 +7889,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7938,13 +7914,13 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7995,7 +7971,7 @@
         <v>71</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -8010,7 +7986,7 @@
         <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>71</v>
@@ -8019,9 +7995,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8032,7 +8008,7 @@
         <v>72</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>71</v>
@@ -8044,13 +8020,13 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8101,7 +8077,7 @@
         <v>71</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
@@ -8116,7 +8092,7 @@
         <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>71</v>
@@ -8125,9 +8101,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8153,10 +8129,10 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8207,7 +8183,7 @@
         <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -8228,12 +8204,12 @@
         <v>71</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8262,7 +8238,7 @@
         <v>128</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>130</v>
@@ -8315,7 +8291,7 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
@@ -8336,16 +8312,16 @@
         <v>71</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8367,10 +8343,10 @@
         <v>127</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>130</v>
@@ -8425,7 +8401,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
@@ -8449,9 +8425,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8474,13 +8450,13 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8531,7 +8507,7 @@
         <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>72</v>
@@ -8546,7 +8522,7 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>71</v>
@@ -8555,9 +8531,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8580,13 +8556,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8613,14 +8589,14 @@
         <v>71</v>
       </c>
       <c r="W68" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="X68" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>71</v>
       </c>
@@ -8637,7 +8613,7 @@
         <v>71</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
@@ -8652,7 +8628,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>71</v>
@@ -8662,24 +8638,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL68">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,10 +471,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>Overall defining type of this clinical use definition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|4.6.0</t>
+    <t>Overall defining type of this clinical use issue.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-use-issue-type|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>(the type of IDMP class, out of Contraindication, Therapeutic Indication, Interactions, Undesirable Effects)</t>
@@ -1345,7 +1345,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="81.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1322,43 +1322,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="65.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.38671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="225.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="81.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="81.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="64.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.8125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.81640625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-interaction-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-interaction-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,7 +496,7 @@
     <t>ClinicalUseDefinition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
+++ b/StructureDefinition-ClinicalUseDefinition-interaction-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
